--- a/cal-firkant/firkanter.xlsx
+++ b/cal-firkant/firkanter.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Peter\danbots\test_measurements\cal-firkant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC52ED80-6538-4ABD-BC2F-4115CD354845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A6D7A0-4E48-451F-863E-8D6DA117600B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="17040" windowHeight="9900" xr2:uid="{833291CC-2AF3-4D71-B1CE-9A495F62B4F8}"/>
+    <workbookView xWindow="1500" yWindow="440" windowWidth="17040" windowHeight="9900" activeTab="1" xr2:uid="{833291CC-2AF3-4D71-B1CE-9A495F62B4F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Firkanter med danwand</t>
   </si>
@@ -103,6 +104,21 @@
   </si>
   <si>
     <t>ver</t>
+  </si>
+  <si>
+    <t>Måleband</t>
+  </si>
+  <si>
+    <t>Afstand til target</t>
+  </si>
+  <si>
+    <t>Bredde</t>
+  </si>
+  <si>
+    <t>Højde</t>
+  </si>
+  <si>
+    <t>intern cam afstand</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2548262A-CA2D-40B5-BDD5-2809886D3B7E}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -2074,4 +2090,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14BBA8E-009B-4979-8D70-B6929BB2AAC5}">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>26.4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <f>D4+D5</f>
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <f>D8/2/$D$6</f>
+        <v>0.6028368794326241</v>
+      </c>
+      <c r="G8">
+        <f>ATAN(F8)/PI()*180</f>
+        <v>31.083122566698723</v>
+      </c>
+      <c r="H8">
+        <f>2*G8</f>
+        <v>62.166245133397446</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <f>D9/2/$D$6</f>
+        <v>0.46099290780141844</v>
+      </c>
+      <c r="G9">
+        <f>ATAN(F9)/PI()*180</f>
+        <v>24.749366490717513</v>
+      </c>
+      <c r="H9">
+        <f>2*G9</f>
+        <v>49.498732981435026</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>27.8</v>
+      </c>
+      <c r="F13">
+        <f>D13/2/$D$6</f>
+        <v>0.49290780141843976</v>
+      </c>
+      <c r="G13">
+        <f>ATAN(F13)/PI()*180</f>
+        <v>26.239047414865919</v>
+      </c>
+      <c r="H13">
+        <f>2*G13</f>
+        <v>52.478094829731837</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>20.5</v>
+      </c>
+      <c r="F14">
+        <f>D14/2/$D$6</f>
+        <v>0.36347517730496454</v>
+      </c>
+      <c r="G14">
+        <f>ATAN(F14)/PI()*180</f>
+        <v>19.974949377946963</v>
+      </c>
+      <c r="H14">
+        <f>2*G14</f>
+        <v>39.949898755893926</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>